--- a/source_data_old/QuaL_1_data.xlsx
+++ b/source_data_old/QuaL_1_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingyan.hu\Downloads\Step3_NewData\_Formatted\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonzalezmorales\projects\ARCGIS HUBS\gender_data_portal\source_data_old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{83B57E52-F2FB-4116-B41A-43FFFAA30E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2B5651C-0738-43B1-96E8-C0EB03BC75C6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D507FA00-5026-4A00-8786-1B69BE73BD2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25080" yWindow="8805" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -1216,7 +1216,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1699,10 +1699,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2060,12 +2063,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="O175" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T1" sqref="T1:T1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A324" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A341" sqref="A341"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
@@ -2081,7 +2084,7 @@
     <col min="20" max="20" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2143,9 +2146,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>54</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2205,9 +2208,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
-      <c r="A3">
-        <v>1</v>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>54</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2267,9 +2270,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
-      <c r="A4">
-        <v>1</v>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>54</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2329,9 +2332,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5">
-        <v>1</v>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>54</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2391,9 +2394,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
-      <c r="A6">
-        <v>1</v>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>54</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2453,9 +2456,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
-      <c r="A7">
-        <v>1</v>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>54</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2515,9 +2518,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
-      <c r="A8">
-        <v>1</v>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>54</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2577,9 +2580,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
-      <c r="A9">
-        <v>1</v>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>54</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2639,9 +2642,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
-      <c r="A10">
-        <v>1</v>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>54</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2701,9 +2704,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
-      <c r="A11">
-        <v>1</v>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>54</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2763,9 +2766,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
-      <c r="A12">
-        <v>1</v>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>54</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2825,9 +2828,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
-      <c r="A13">
-        <v>1</v>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>54</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2887,9 +2890,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
-      <c r="A14">
-        <v>1</v>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>54</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2949,9 +2952,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
-      <c r="A15">
-        <v>1</v>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>54</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -3011,9 +3014,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
-      <c r="A16">
-        <v>1</v>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -3073,9 +3076,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
-      <c r="A17">
-        <v>1</v>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>54</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -3135,9 +3138,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
-      <c r="A18">
-        <v>1</v>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>54</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -3197,9 +3200,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
-      <c r="A19">
-        <v>1</v>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>54</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -3259,9 +3262,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
-      <c r="A20">
-        <v>1</v>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>54</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3321,9 +3324,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
-      <c r="A21">
-        <v>1</v>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>54</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3383,9 +3386,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
-      <c r="A22">
-        <v>1</v>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>54</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3445,9 +3448,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
-      <c r="A23">
-        <v>1</v>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>54</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -3507,9 +3510,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
-      <c r="A24">
-        <v>1</v>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>54</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3569,9 +3572,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
-      <c r="A25">
-        <v>1</v>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>54</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3631,9 +3634,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
-      <c r="A26">
-        <v>1</v>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>54</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -3693,9 +3696,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
-      <c r="A27">
-        <v>1</v>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>54</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3755,9 +3758,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
-      <c r="A28">
-        <v>1</v>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>54</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -3817,9 +3820,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
-      <c r="A29">
-        <v>1</v>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>54</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -3879,9 +3882,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
-      <c r="A30">
-        <v>1</v>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>54</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -3941,9 +3944,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
-      <c r="A31">
-        <v>1</v>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>54</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -4003,9 +4006,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
-      <c r="A32">
-        <v>1</v>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>54</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -4065,9 +4068,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
-      <c r="A33">
-        <v>1</v>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>54</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4127,9 +4130,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
-      <c r="A34">
-        <v>1</v>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>54</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -4189,9 +4192,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
-      <c r="A35">
-        <v>1</v>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>54</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -4251,9 +4254,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
-      <c r="A36">
-        <v>1</v>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>54</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -4313,9 +4316,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
-      <c r="A37">
-        <v>1</v>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>54</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -4375,9 +4378,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
-      <c r="A38">
-        <v>1</v>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>54</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -4437,9 +4440,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
-      <c r="A39">
-        <v>1</v>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>54</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -4499,9 +4502,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
-      <c r="A40">
-        <v>1</v>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>54</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -4561,9 +4564,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
-      <c r="A41">
-        <v>1</v>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>54</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -4623,9 +4626,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
-      <c r="A42">
-        <v>1</v>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>54</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -4685,9 +4688,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
-      <c r="A43">
-        <v>1</v>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>54</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -4747,9 +4750,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
-      <c r="A44">
-        <v>1</v>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>54</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -4809,9 +4812,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
-      <c r="A45">
-        <v>1</v>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>54</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -4871,9 +4874,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
-      <c r="A46">
-        <v>1</v>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>54</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -4933,9 +4936,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
-      <c r="A47">
-        <v>1</v>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>54</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -4995,9 +4998,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
-      <c r="A48">
-        <v>1</v>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>54</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -5057,9 +5060,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
-      <c r="A49">
-        <v>1</v>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>54</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -5119,9 +5122,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
-      <c r="A50">
-        <v>1</v>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>54</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -5181,9 +5184,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
-      <c r="A51">
-        <v>1</v>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>54</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -5243,9 +5246,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
-      <c r="A52">
-        <v>1</v>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>54</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -5305,9 +5308,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
-      <c r="A53">
-        <v>1</v>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>54</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -5367,9 +5370,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
-      <c r="A54">
-        <v>1</v>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>54</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -5429,9 +5432,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
-      <c r="A55">
-        <v>1</v>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>54</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -5491,9 +5494,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
-      <c r="A56">
-        <v>1</v>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>54</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -5553,9 +5556,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
-      <c r="A57">
-        <v>1</v>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>54</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -5615,9 +5618,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
-      <c r="A58">
-        <v>1</v>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>54</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -5677,9 +5680,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
-      <c r="A59">
-        <v>1</v>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>54</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -5739,9 +5742,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
-      <c r="A60">
-        <v>1</v>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>54</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -5801,9 +5804,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
-      <c r="A61">
-        <v>1</v>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>54</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -5863,9 +5866,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
-      <c r="A62">
-        <v>1</v>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>54</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -5925,9 +5928,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
-      <c r="A63">
-        <v>1</v>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>54</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -5987,9 +5990,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="64" spans="1:20">
-      <c r="A64">
-        <v>1</v>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>54</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -6049,9 +6052,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
-      <c r="A65">
-        <v>1</v>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>54</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -6111,9 +6114,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
-      <c r="A66">
-        <v>1</v>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>54</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -6173,9 +6176,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="67" spans="1:20">
-      <c r="A67">
-        <v>1</v>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>54</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -6235,9 +6238,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="68" spans="1:20">
-      <c r="A68">
-        <v>1</v>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>54</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -6297,9 +6300,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
-      <c r="A69">
-        <v>1</v>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>54</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -6359,9 +6362,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
-      <c r="A70">
-        <v>1</v>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>54</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -6421,9 +6424,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="71" spans="1:20">
-      <c r="A71">
-        <v>1</v>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>54</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -6483,9 +6486,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="72" spans="1:20">
-      <c r="A72">
-        <v>1</v>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>54</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -6545,9 +6548,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="73" spans="1:20">
-      <c r="A73">
-        <v>1</v>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>54</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -6607,9 +6610,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="74" spans="1:20">
-      <c r="A74">
-        <v>1</v>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>54</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -6669,9 +6672,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="75" spans="1:20">
-      <c r="A75">
-        <v>1</v>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>54</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -6731,9 +6734,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="76" spans="1:20">
-      <c r="A76">
-        <v>1</v>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>54</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -6793,9 +6796,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="77" spans="1:20">
-      <c r="A77">
-        <v>1</v>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>54</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -6855,9 +6858,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="78" spans="1:20">
-      <c r="A78">
-        <v>1</v>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>54</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -6917,9 +6920,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="79" spans="1:20">
-      <c r="A79">
-        <v>1</v>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>54</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -6979,9 +6982,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="80" spans="1:20">
-      <c r="A80">
-        <v>1</v>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>54</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -7041,9 +7044,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="81" spans="1:20">
-      <c r="A81">
-        <v>1</v>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>54</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -7103,9 +7106,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="82" spans="1:20">
-      <c r="A82">
-        <v>1</v>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>54</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -7165,9 +7168,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="83" spans="1:20">
-      <c r="A83">
-        <v>1</v>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>54</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -7227,9 +7230,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="84" spans="1:20">
-      <c r="A84">
-        <v>1</v>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>54</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -7289,9 +7292,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="85" spans="1:20">
-      <c r="A85">
-        <v>1</v>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>54</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -7351,9 +7354,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="86" spans="1:20">
-      <c r="A86">
-        <v>1</v>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>54</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -7413,9 +7416,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="87" spans="1:20">
-      <c r="A87">
-        <v>1</v>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>54</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -7475,9 +7478,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="88" spans="1:20">
-      <c r="A88">
-        <v>1</v>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>54</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -7537,9 +7540,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="89" spans="1:20">
-      <c r="A89">
-        <v>1</v>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>54</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -7599,9 +7602,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="90" spans="1:20">
-      <c r="A90">
-        <v>1</v>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>54</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -7661,9 +7664,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="91" spans="1:20">
-      <c r="A91">
-        <v>1</v>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>54</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -7723,9 +7726,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="92" spans="1:20">
-      <c r="A92">
-        <v>1</v>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>54</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -7785,9 +7788,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="93" spans="1:20">
-      <c r="A93">
-        <v>1</v>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>54</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -7847,9 +7850,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="94" spans="1:20">
-      <c r="A94">
-        <v>1</v>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>54</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -7909,9 +7912,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="95" spans="1:20">
-      <c r="A95">
-        <v>1</v>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>54</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -7971,9 +7974,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="96" spans="1:20">
-      <c r="A96">
-        <v>1</v>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>54</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -8033,9 +8036,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="97" spans="1:20">
-      <c r="A97">
-        <v>1</v>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>54</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -8095,9 +8098,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="98" spans="1:20">
-      <c r="A98">
-        <v>1</v>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>54</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -8157,9 +8160,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="99" spans="1:20">
-      <c r="A99">
-        <v>1</v>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>54</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -8219,9 +8222,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="100" spans="1:20">
-      <c r="A100">
-        <v>1</v>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>54</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -8281,9 +8284,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="101" spans="1:20">
-      <c r="A101">
-        <v>1</v>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>54</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -8343,9 +8346,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="102" spans="1:20">
-      <c r="A102">
-        <v>1</v>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>54</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -8405,9 +8408,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="103" spans="1:20">
-      <c r="A103">
-        <v>1</v>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>54</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -8467,9 +8470,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="104" spans="1:20">
-      <c r="A104">
-        <v>1</v>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>54</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -8529,9 +8532,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="105" spans="1:20">
-      <c r="A105">
-        <v>1</v>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>54</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -8591,9 +8594,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="106" spans="1:20">
-      <c r="A106">
-        <v>1</v>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>54</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -8653,9 +8656,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="107" spans="1:20">
-      <c r="A107">
-        <v>1</v>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>54</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -8715,9 +8718,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="108" spans="1:20">
-      <c r="A108">
-        <v>1</v>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>54</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -8777,9 +8780,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="109" spans="1:20">
-      <c r="A109">
-        <v>1</v>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>54</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -8839,9 +8842,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="110" spans="1:20">
-      <c r="A110">
-        <v>1</v>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>54</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -8901,9 +8904,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="111" spans="1:20">
-      <c r="A111">
-        <v>1</v>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>54</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -8963,9 +8966,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="112" spans="1:20">
-      <c r="A112">
-        <v>1</v>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>54</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -9025,9 +9028,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="113" spans="1:20">
-      <c r="A113">
-        <v>1</v>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>54</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -9087,9 +9090,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="114" spans="1:20">
-      <c r="A114">
-        <v>1</v>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>54</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -9149,9 +9152,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="115" spans="1:20">
-      <c r="A115">
-        <v>1</v>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>54</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -9211,9 +9214,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="116" spans="1:20">
-      <c r="A116">
-        <v>1</v>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <v>54</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -9273,9 +9276,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="117" spans="1:20">
-      <c r="A117">
-        <v>1</v>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>54</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -9335,9 +9338,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="118" spans="1:20">
-      <c r="A118">
-        <v>1</v>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>54</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -9397,9 +9400,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="119" spans="1:20">
-      <c r="A119">
-        <v>1</v>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>54</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -9459,9 +9462,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="120" spans="1:20">
-      <c r="A120">
-        <v>1</v>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>54</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -9521,9 +9524,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="121" spans="1:20">
-      <c r="A121">
-        <v>1</v>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <v>54</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -9583,9 +9586,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="122" spans="1:20">
-      <c r="A122">
-        <v>1</v>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <v>54</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -9645,9 +9648,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="123" spans="1:20">
-      <c r="A123">
-        <v>1</v>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <v>54</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -9707,9 +9710,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="124" spans="1:20">
-      <c r="A124">
-        <v>1</v>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <v>54</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -9769,9 +9772,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="125" spans="1:20">
-      <c r="A125">
-        <v>1</v>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <v>54</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -9831,9 +9834,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="126" spans="1:20">
-      <c r="A126">
-        <v>1</v>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <v>54</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -9893,9 +9896,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="127" spans="1:20">
-      <c r="A127">
-        <v>1</v>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <v>54</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -9955,9 +9958,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="128" spans="1:20">
-      <c r="A128">
-        <v>1</v>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <v>54</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -10017,9 +10020,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="129" spans="1:20">
-      <c r="A129">
-        <v>1</v>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <v>54</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -10079,9 +10082,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="130" spans="1:20">
-      <c r="A130">
-        <v>1</v>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <v>54</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -10141,9 +10144,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="131" spans="1:20">
-      <c r="A131">
-        <v>1</v>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <v>54</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -10203,9 +10206,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="132" spans="1:20">
-      <c r="A132">
-        <v>1</v>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
+        <v>54</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -10265,9 +10268,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="133" spans="1:20">
-      <c r="A133">
-        <v>1</v>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>54</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -10327,9 +10330,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="134" spans="1:20">
-      <c r="A134">
-        <v>1</v>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <v>54</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -10389,9 +10392,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="135" spans="1:20">
-      <c r="A135">
-        <v>1</v>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <v>54</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -10451,9 +10454,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="136" spans="1:20">
-      <c r="A136">
-        <v>1</v>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <v>54</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -10513,9 +10516,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="137" spans="1:20">
-      <c r="A137">
-        <v>1</v>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
+        <v>54</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -10575,9 +10578,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="138" spans="1:20">
-      <c r="A138">
-        <v>1</v>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <v>54</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -10637,9 +10640,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="139" spans="1:20">
-      <c r="A139">
-        <v>1</v>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
+        <v>54</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -10699,9 +10702,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="140" spans="1:20">
-      <c r="A140">
-        <v>1</v>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <v>54</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -10761,9 +10764,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="141" spans="1:20">
-      <c r="A141">
-        <v>1</v>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <v>54</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -10823,9 +10826,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="142" spans="1:20">
-      <c r="A142">
-        <v>1</v>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
+        <v>54</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -10885,9 +10888,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="143" spans="1:20">
-      <c r="A143">
-        <v>1</v>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
+        <v>54</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -10947,9 +10950,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="144" spans="1:20">
-      <c r="A144">
-        <v>1</v>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
+        <v>54</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -11009,9 +11012,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="145" spans="1:20">
-      <c r="A145">
-        <v>1</v>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
+        <v>54</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -11071,9 +11074,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="146" spans="1:20">
-      <c r="A146">
-        <v>1</v>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
+        <v>54</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -11133,9 +11136,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="147" spans="1:20">
-      <c r="A147">
-        <v>1</v>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
+        <v>54</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -11195,9 +11198,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="148" spans="1:20">
-      <c r="A148">
-        <v>1</v>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
+        <v>54</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -11257,9 +11260,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="149" spans="1:20">
-      <c r="A149">
-        <v>1</v>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
+        <v>54</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -11319,9 +11322,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="150" spans="1:20">
-      <c r="A150">
-        <v>1</v>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
+        <v>54</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -11381,9 +11384,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="151" spans="1:20">
-      <c r="A151">
-        <v>1</v>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
+        <v>54</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -11443,9 +11446,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="152" spans="1:20">
-      <c r="A152">
-        <v>1</v>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
+        <v>54</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -11505,9 +11508,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="153" spans="1:20">
-      <c r="A153">
-        <v>1</v>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
+        <v>54</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -11567,9 +11570,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="154" spans="1:20">
-      <c r="A154">
-        <v>1</v>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
+        <v>54</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -11629,9 +11632,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="155" spans="1:20">
-      <c r="A155">
-        <v>1</v>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
+        <v>54</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -11691,9 +11694,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="156" spans="1:20">
-      <c r="A156">
-        <v>1</v>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
+        <v>54</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -11753,9 +11756,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="157" spans="1:20">
-      <c r="A157">
-        <v>1</v>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
+        <v>54</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -11815,9 +11818,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="158" spans="1:20">
-      <c r="A158">
-        <v>1</v>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
+        <v>54</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -11877,9 +11880,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="159" spans="1:20">
-      <c r="A159">
-        <v>1</v>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
+        <v>54</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -11939,9 +11942,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="160" spans="1:20">
-      <c r="A160">
-        <v>1</v>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
+        <v>54</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -12001,9 +12004,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="161" spans="1:20">
-      <c r="A161">
-        <v>1</v>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
+        <v>54</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -12063,9 +12066,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="162" spans="1:20">
-      <c r="A162">
-        <v>1</v>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
+        <v>54</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -12125,9 +12128,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="163" spans="1:20">
-      <c r="A163">
-        <v>1</v>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
+        <v>54</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -12187,9 +12190,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="164" spans="1:20">
-      <c r="A164">
-        <v>1</v>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
+        <v>54</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -12249,9 +12252,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="165" spans="1:20">
-      <c r="A165">
-        <v>1</v>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
+        <v>54</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -12311,9 +12314,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="166" spans="1:20">
-      <c r="A166">
-        <v>1</v>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
+        <v>54</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -12373,9 +12376,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="167" spans="1:20">
-      <c r="A167">
-        <v>1</v>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
+        <v>54</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -12435,9 +12438,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="168" spans="1:20">
-      <c r="A168">
-        <v>1</v>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
+        <v>54</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -12497,9 +12500,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="169" spans="1:20">
-      <c r="A169">
-        <v>1</v>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
+        <v>54</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -12559,9 +12562,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="170" spans="1:20">
-      <c r="A170">
-        <v>1</v>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
+        <v>54</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -12621,9 +12624,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="171" spans="1:20">
-      <c r="A171">
-        <v>1</v>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
+        <v>54</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -12683,9 +12686,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="172" spans="1:20">
-      <c r="A172">
-        <v>1</v>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
+        <v>54</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -12745,9 +12748,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="173" spans="1:20">
-      <c r="A173">
-        <v>1</v>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A173" s="3">
+        <v>54</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -12807,9 +12810,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="174" spans="1:20">
-      <c r="A174">
-        <v>1</v>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
+        <v>54</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -12869,9 +12872,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="175" spans="1:20">
-      <c r="A175">
-        <v>1</v>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A175" s="3">
+        <v>54</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -12931,9 +12934,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="176" spans="1:20">
-      <c r="A176">
-        <v>1</v>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A176" s="3">
+        <v>54</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -12993,9 +12996,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="177" spans="1:20">
-      <c r="A177">
-        <v>1</v>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
+        <v>54</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -13055,9 +13058,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="178" spans="1:20">
-      <c r="A178">
-        <v>1</v>
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
+        <v>54</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -13117,9 +13120,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="179" spans="1:20">
-      <c r="A179">
-        <v>1</v>
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
+        <v>54</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -13179,9 +13182,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="180" spans="1:20">
-      <c r="A180">
-        <v>1</v>
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
+        <v>54</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -13241,9 +13244,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="181" spans="1:20">
-      <c r="A181">
-        <v>1</v>
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
+        <v>54</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -13303,9 +13306,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="182" spans="1:20">
-      <c r="A182">
-        <v>1</v>
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
+        <v>54</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -13365,9 +13368,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="183" spans="1:20">
-      <c r="A183">
-        <v>1</v>
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
+        <v>54</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -13427,9 +13430,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="184" spans="1:20">
-      <c r="A184">
-        <v>1</v>
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
+        <v>54</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -13489,9 +13492,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="185" spans="1:20">
-      <c r="A185">
-        <v>1</v>
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
+        <v>54</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -13551,9 +13554,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="186" spans="1:20">
-      <c r="A186">
-        <v>1</v>
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
+        <v>54</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -13613,9 +13616,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="187" spans="1:20">
-      <c r="A187">
-        <v>1</v>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
+        <v>54</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -13675,9 +13678,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="188" spans="1:20">
-      <c r="A188">
-        <v>1</v>
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
+        <v>54</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -13737,9 +13740,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="189" spans="1:20">
-      <c r="A189">
-        <v>1</v>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
+        <v>54</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -13799,9 +13802,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="190" spans="1:20">
-      <c r="A190">
-        <v>1</v>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
+        <v>54</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -13861,9 +13864,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="191" spans="1:20">
-      <c r="A191">
-        <v>1</v>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
+        <v>54</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -13923,9 +13926,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="192" spans="1:20">
-      <c r="A192">
-        <v>1</v>
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A192" s="3">
+        <v>54</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -13985,9 +13988,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="193" spans="1:20">
-      <c r="A193">
-        <v>1</v>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
+        <v>54</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -14047,9 +14050,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="194" spans="1:20">
-      <c r="A194">
-        <v>1</v>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A194" s="3">
+        <v>54</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -14109,9 +14112,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="195" spans="1:20">
-      <c r="A195">
-        <v>1</v>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A195" s="3">
+        <v>54</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -14171,9 +14174,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="196" spans="1:20">
-      <c r="A196">
-        <v>1</v>
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
+        <v>54</v>
       </c>
       <c r="B196">
         <v>1</v>
@@ -14233,9 +14236,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="197" spans="1:20">
-      <c r="A197">
-        <v>1</v>
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
+        <v>54</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -14295,9 +14298,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="198" spans="1:20">
-      <c r="A198">
-        <v>1</v>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
+        <v>54</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -14357,9 +14360,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="199" spans="1:20">
-      <c r="A199">
-        <v>1</v>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A199" s="3">
+        <v>54</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -14419,9 +14422,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="200" spans="1:20">
-      <c r="A200">
-        <v>1</v>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
+        <v>54</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -14481,9 +14484,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="201" spans="1:20">
-      <c r="A201">
-        <v>1</v>
+    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
+        <v>54</v>
       </c>
       <c r="B201">
         <v>1</v>
@@ -14543,9 +14546,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="202" spans="1:20">
-      <c r="A202">
-        <v>1</v>
+    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
+        <v>54</v>
       </c>
       <c r="B202">
         <v>1</v>
@@ -14605,9 +14608,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="203" spans="1:20">
-      <c r="A203">
-        <v>1</v>
+    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A203" s="3">
+        <v>54</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -14667,9 +14670,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="204" spans="1:20">
-      <c r="A204">
-        <v>1</v>
+    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A204" s="3">
+        <v>54</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -14729,9 +14732,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="205" spans="1:20">
-      <c r="A205">
-        <v>1</v>
+    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A205" s="3">
+        <v>54</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -14791,9 +14794,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="206" spans="1:20">
-      <c r="A206">
-        <v>1</v>
+    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A206" s="3">
+        <v>54</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -14853,9 +14856,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="207" spans="1:20">
-      <c r="A207">
-        <v>1</v>
+    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A207" s="3">
+        <v>54</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -14915,9 +14918,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="208" spans="1:20">
-      <c r="A208">
-        <v>1</v>
+    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A208" s="3">
+        <v>54</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -14977,9 +14980,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="209" spans="1:20">
-      <c r="A209">
-        <v>1</v>
+    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A209" s="3">
+        <v>54</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -15039,9 +15042,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="210" spans="1:20">
-      <c r="A210">
-        <v>1</v>
+    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A210" s="3">
+        <v>54</v>
       </c>
       <c r="B210">
         <v>1</v>
@@ -15101,9 +15104,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="211" spans="1:20">
-      <c r="A211">
-        <v>1</v>
+    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A211" s="3">
+        <v>54</v>
       </c>
       <c r="B211">
         <v>1</v>
@@ -15163,9 +15166,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="212" spans="1:20">
-      <c r="A212">
-        <v>1</v>
+    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A212" s="3">
+        <v>54</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -15225,9 +15228,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="213" spans="1:20">
-      <c r="A213">
-        <v>1</v>
+    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A213" s="3">
+        <v>54</v>
       </c>
       <c r="B213">
         <v>1</v>
@@ -15287,9 +15290,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="214" spans="1:20">
-      <c r="A214">
-        <v>1</v>
+    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A214" s="3">
+        <v>54</v>
       </c>
       <c r="B214">
         <v>1</v>
@@ -15349,9 +15352,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="215" spans="1:20">
-      <c r="A215">
-        <v>1</v>
+    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A215" s="3">
+        <v>54</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -15411,9 +15414,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="216" spans="1:20">
-      <c r="A216">
-        <v>1</v>
+    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A216" s="3">
+        <v>54</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -15473,9 +15476,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="217" spans="1:20">
-      <c r="A217">
-        <v>1</v>
+    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A217" s="3">
+        <v>54</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -15535,9 +15538,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="218" spans="1:20">
-      <c r="A218">
-        <v>1</v>
+    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A218" s="3">
+        <v>54</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -15597,9 +15600,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="219" spans="1:20">
-      <c r="A219">
-        <v>1</v>
+    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A219" s="3">
+        <v>54</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -15659,9 +15662,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="220" spans="1:20">
-      <c r="A220">
-        <v>1</v>
+    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A220" s="3">
+        <v>54</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -15721,9 +15724,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="221" spans="1:20">
-      <c r="A221">
-        <v>1</v>
+    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A221" s="3">
+        <v>54</v>
       </c>
       <c r="B221">
         <v>1</v>
@@ -15783,9 +15786,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="222" spans="1:20">
-      <c r="A222">
-        <v>1</v>
+    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A222" s="3">
+        <v>54</v>
       </c>
       <c r="B222">
         <v>1</v>
@@ -15845,9 +15848,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="223" spans="1:20">
-      <c r="A223">
-        <v>1</v>
+    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A223" s="3">
+        <v>54</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -15907,9 +15910,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="224" spans="1:20">
-      <c r="A224">
-        <v>1</v>
+    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A224" s="3">
+        <v>54</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -15969,9 +15972,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="225" spans="1:20">
-      <c r="A225">
-        <v>1</v>
+    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A225" s="3">
+        <v>54</v>
       </c>
       <c r="B225">
         <v>1</v>
@@ -16031,9 +16034,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="226" spans="1:20">
-      <c r="A226">
-        <v>1</v>
+    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A226" s="3">
+        <v>54</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -16093,9 +16096,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="227" spans="1:20">
-      <c r="A227">
-        <v>1</v>
+    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A227" s="3">
+        <v>54</v>
       </c>
       <c r="B227">
         <v>1</v>
@@ -16155,9 +16158,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="228" spans="1:20">
-      <c r="A228">
-        <v>1</v>
+    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A228" s="3">
+        <v>54</v>
       </c>
       <c r="B228">
         <v>1</v>
@@ -16217,9 +16220,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="229" spans="1:20">
-      <c r="A229">
-        <v>1</v>
+    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A229" s="3">
+        <v>54</v>
       </c>
       <c r="B229">
         <v>1</v>
@@ -16279,9 +16282,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="230" spans="1:20">
-      <c r="A230">
-        <v>1</v>
+    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A230" s="3">
+        <v>54</v>
       </c>
       <c r="B230">
         <v>1</v>
@@ -16341,9 +16344,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="231" spans="1:20">
-      <c r="A231">
-        <v>1</v>
+    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A231" s="3">
+        <v>54</v>
       </c>
       <c r="B231">
         <v>1</v>
@@ -16403,9 +16406,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="232" spans="1:20">
-      <c r="A232">
-        <v>1</v>
+    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A232" s="3">
+        <v>54</v>
       </c>
       <c r="B232">
         <v>1</v>
@@ -16465,9 +16468,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="233" spans="1:20">
-      <c r="A233">
-        <v>1</v>
+    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A233" s="3">
+        <v>54</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -16527,9 +16530,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="234" spans="1:20">
-      <c r="A234">
-        <v>1</v>
+    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A234" s="3">
+        <v>54</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -16589,9 +16592,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="235" spans="1:20">
-      <c r="A235">
-        <v>1</v>
+    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A235" s="3">
+        <v>54</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -16651,9 +16654,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="236" spans="1:20">
-      <c r="A236">
-        <v>1</v>
+    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A236" s="3">
+        <v>54</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -16713,9 +16716,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="237" spans="1:20">
-      <c r="A237">
-        <v>1</v>
+    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A237" s="3">
+        <v>54</v>
       </c>
       <c r="B237">
         <v>1</v>
@@ -16775,9 +16778,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="238" spans="1:20">
-      <c r="A238">
-        <v>1</v>
+    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A238" s="3">
+        <v>54</v>
       </c>
       <c r="B238">
         <v>1</v>
@@ -16837,9 +16840,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="239" spans="1:20">
-      <c r="A239">
-        <v>1</v>
+    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A239" s="3">
+        <v>54</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -16899,9 +16902,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="240" spans="1:20">
-      <c r="A240">
-        <v>1</v>
+    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A240" s="3">
+        <v>54</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -16961,9 +16964,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="241" spans="1:20">
-      <c r="A241">
-        <v>1</v>
+    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A241" s="3">
+        <v>54</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -17023,9 +17026,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="242" spans="1:20">
-      <c r="A242">
-        <v>1</v>
+    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A242" s="3">
+        <v>54</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -17085,9 +17088,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="243" spans="1:20">
-      <c r="A243">
-        <v>1</v>
+    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A243" s="3">
+        <v>54</v>
       </c>
       <c r="B243">
         <v>1</v>
@@ -17147,9 +17150,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="244" spans="1:20">
-      <c r="A244">
-        <v>1</v>
+    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A244" s="3">
+        <v>54</v>
       </c>
       <c r="B244">
         <v>1</v>
@@ -17209,9 +17212,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="245" spans="1:20">
-      <c r="A245">
-        <v>1</v>
+    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A245" s="3">
+        <v>54</v>
       </c>
       <c r="B245">
         <v>1</v>
@@ -17271,9 +17274,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="246" spans="1:20">
-      <c r="A246">
-        <v>1</v>
+    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A246" s="3">
+        <v>54</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -17333,9 +17336,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="247" spans="1:20">
-      <c r="A247">
-        <v>1</v>
+    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A247" s="3">
+        <v>54</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -17395,9 +17398,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="248" spans="1:20">
-      <c r="A248">
-        <v>1</v>
+    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A248" s="3">
+        <v>54</v>
       </c>
       <c r="B248">
         <v>1</v>
@@ -17457,9 +17460,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="249" spans="1:20">
-      <c r="A249">
-        <v>1</v>
+    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A249" s="3">
+        <v>54</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -17519,9 +17522,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="250" spans="1:20">
-      <c r="A250">
-        <v>1</v>
+    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A250" s="3">
+        <v>54</v>
       </c>
       <c r="B250">
         <v>1</v>
@@ -17581,9 +17584,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="251" spans="1:20">
-      <c r="A251">
-        <v>1</v>
+    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A251" s="3">
+        <v>54</v>
       </c>
       <c r="B251">
         <v>1</v>
@@ -17643,9 +17646,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="252" spans="1:20">
-      <c r="A252">
-        <v>1</v>
+    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A252" s="3">
+        <v>54</v>
       </c>
       <c r="B252">
         <v>1</v>
@@ -17705,9 +17708,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="253" spans="1:20">
-      <c r="A253">
-        <v>1</v>
+    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A253" s="3">
+        <v>54</v>
       </c>
       <c r="B253">
         <v>1</v>
@@ -17767,9 +17770,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="254" spans="1:20">
-      <c r="A254">
-        <v>1</v>
+    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A254" s="3">
+        <v>54</v>
       </c>
       <c r="B254">
         <v>1</v>
@@ -17829,9 +17832,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="255" spans="1:20">
-      <c r="A255">
-        <v>1</v>
+    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A255" s="3">
+        <v>54</v>
       </c>
       <c r="B255">
         <v>1</v>
@@ -17891,9 +17894,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="256" spans="1:20">
-      <c r="A256">
-        <v>1</v>
+    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A256" s="3">
+        <v>54</v>
       </c>
       <c r="B256">
         <v>1</v>
@@ -17953,9 +17956,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="257" spans="1:20">
-      <c r="A257">
-        <v>1</v>
+    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A257" s="3">
+        <v>54</v>
       </c>
       <c r="B257">
         <v>1</v>
@@ -18015,9 +18018,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="258" spans="1:20">
-      <c r="A258">
-        <v>1</v>
+    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A258" s="3">
+        <v>54</v>
       </c>
       <c r="B258">
         <v>1</v>
@@ -18077,9 +18080,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="259" spans="1:20">
-      <c r="A259">
-        <v>1</v>
+    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A259" s="3">
+        <v>54</v>
       </c>
       <c r="B259">
         <v>1</v>
@@ -18139,9 +18142,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="260" spans="1:20">
-      <c r="A260">
-        <v>1</v>
+    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A260" s="3">
+        <v>54</v>
       </c>
       <c r="B260">
         <v>1</v>
@@ -18201,9 +18204,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="261" spans="1:20">
-      <c r="A261">
-        <v>1</v>
+    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A261" s="3">
+        <v>54</v>
       </c>
       <c r="B261">
         <v>1</v>
@@ -18263,9 +18266,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="262" spans="1:20">
-      <c r="A262">
-        <v>1</v>
+    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A262" s="3">
+        <v>54</v>
       </c>
       <c r="B262">
         <v>1</v>
@@ -18325,9 +18328,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="263" spans="1:20">
-      <c r="A263">
-        <v>1</v>
+    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A263" s="3">
+        <v>54</v>
       </c>
       <c r="B263">
         <v>1</v>
@@ -18387,9 +18390,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="264" spans="1:20">
-      <c r="A264">
-        <v>1</v>
+    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A264" s="3">
+        <v>54</v>
       </c>
       <c r="B264">
         <v>1</v>
@@ -18449,9 +18452,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="265" spans="1:20">
-      <c r="A265">
-        <v>1</v>
+    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A265" s="3">
+        <v>54</v>
       </c>
       <c r="B265">
         <v>1</v>
@@ -18511,9 +18514,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="266" spans="1:20">
-      <c r="A266">
-        <v>1</v>
+    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A266" s="3">
+        <v>54</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -18573,9 +18576,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="267" spans="1:20">
-      <c r="A267">
-        <v>1</v>
+    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A267" s="3">
+        <v>54</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -18635,9 +18638,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="268" spans="1:20">
-      <c r="A268">
-        <v>1</v>
+    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A268" s="3">
+        <v>54</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -18697,9 +18700,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="269" spans="1:20">
-      <c r="A269">
-        <v>1</v>
+    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A269" s="3">
+        <v>54</v>
       </c>
       <c r="B269">
         <v>1</v>
@@ -18759,9 +18762,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="270" spans="1:20">
-      <c r="A270">
-        <v>1</v>
+    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A270" s="3">
+        <v>54</v>
       </c>
       <c r="B270">
         <v>1</v>
@@ -18821,9 +18824,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="271" spans="1:20">
-      <c r="A271">
-        <v>1</v>
+    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A271" s="3">
+        <v>54</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -18883,9 +18886,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="272" spans="1:20">
-      <c r="A272">
-        <v>1</v>
+    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A272" s="3">
+        <v>54</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -18945,9 +18948,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="273" spans="1:20">
-      <c r="A273">
-        <v>1</v>
+    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A273" s="3">
+        <v>54</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -19007,9 +19010,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="274" spans="1:20">
-      <c r="A274">
-        <v>1</v>
+    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A274" s="3">
+        <v>54</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -19069,9 +19072,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="275" spans="1:20">
-      <c r="A275">
-        <v>1</v>
+    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A275" s="3">
+        <v>54</v>
       </c>
       <c r="B275">
         <v>1</v>
@@ -19131,9 +19134,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="276" spans="1:20">
-      <c r="A276">
-        <v>1</v>
+    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A276" s="3">
+        <v>54</v>
       </c>
       <c r="B276">
         <v>1</v>
@@ -19193,9 +19196,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="277" spans="1:20">
-      <c r="A277">
-        <v>1</v>
+    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A277" s="3">
+        <v>54</v>
       </c>
       <c r="B277">
         <v>1</v>
@@ -19255,9 +19258,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="278" spans="1:20">
-      <c r="A278">
-        <v>1</v>
+    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A278" s="3">
+        <v>54</v>
       </c>
       <c r="B278">
         <v>1</v>
@@ -19317,9 +19320,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="279" spans="1:20">
-      <c r="A279">
-        <v>1</v>
+    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A279" s="3">
+        <v>54</v>
       </c>
       <c r="B279">
         <v>1</v>
@@ -19379,9 +19382,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="280" spans="1:20">
-      <c r="A280">
-        <v>1</v>
+    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A280" s="3">
+        <v>54</v>
       </c>
       <c r="B280">
         <v>1</v>
@@ -19441,9 +19444,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="281" spans="1:20">
-      <c r="A281">
-        <v>1</v>
+    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A281" s="3">
+        <v>54</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -19503,9 +19506,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="282" spans="1:20">
-      <c r="A282">
-        <v>1</v>
+    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A282" s="3">
+        <v>54</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -19565,9 +19568,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="283" spans="1:20">
-      <c r="A283">
-        <v>1</v>
+    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A283" s="3">
+        <v>54</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -19627,9 +19630,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="284" spans="1:20">
-      <c r="A284">
-        <v>1</v>
+    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A284" s="3">
+        <v>54</v>
       </c>
       <c r="B284">
         <v>1</v>
@@ -19689,9 +19692,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="285" spans="1:20">
-      <c r="A285">
-        <v>1</v>
+    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A285" s="3">
+        <v>54</v>
       </c>
       <c r="B285">
         <v>1</v>
@@ -19751,9 +19754,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="286" spans="1:20">
-      <c r="A286">
-        <v>1</v>
+    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A286" s="3">
+        <v>54</v>
       </c>
       <c r="B286">
         <v>1</v>
@@ -19813,9 +19816,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="287" spans="1:20">
-      <c r="A287">
-        <v>1</v>
+    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A287" s="3">
+        <v>54</v>
       </c>
       <c r="B287">
         <v>1</v>
@@ -19875,9 +19878,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="288" spans="1:20">
-      <c r="A288">
-        <v>1</v>
+    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A288" s="3">
+        <v>54</v>
       </c>
       <c r="B288">
         <v>1</v>
@@ -19937,9 +19940,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="289" spans="1:20">
-      <c r="A289">
-        <v>1</v>
+    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A289" s="3">
+        <v>54</v>
       </c>
       <c r="B289">
         <v>1</v>
@@ -19999,9 +20002,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="290" spans="1:20">
-      <c r="A290">
-        <v>1</v>
+    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A290" s="3">
+        <v>54</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -20061,9 +20064,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="291" spans="1:20">
-      <c r="A291">
-        <v>1</v>
+    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A291" s="3">
+        <v>54</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -20123,9 +20126,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="292" spans="1:20">
-      <c r="A292">
-        <v>1</v>
+    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A292" s="3">
+        <v>54</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -20185,9 +20188,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="293" spans="1:20">
-      <c r="A293">
-        <v>1</v>
+    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A293" s="3">
+        <v>54</v>
       </c>
       <c r="B293">
         <v>1</v>
@@ -20247,9 +20250,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="294" spans="1:20">
-      <c r="A294">
-        <v>1</v>
+    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A294" s="3">
+        <v>54</v>
       </c>
       <c r="B294">
         <v>1</v>
@@ -20309,9 +20312,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="295" spans="1:20">
-      <c r="A295">
-        <v>1</v>
+    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A295" s="3">
+        <v>54</v>
       </c>
       <c r="B295">
         <v>1</v>
@@ -20371,9 +20374,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="296" spans="1:20">
-      <c r="A296">
-        <v>1</v>
+    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A296" s="3">
+        <v>54</v>
       </c>
       <c r="B296">
         <v>1</v>
@@ -20433,9 +20436,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="297" spans="1:20">
-      <c r="A297">
-        <v>1</v>
+    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A297" s="3">
+        <v>54</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -20495,9 +20498,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="298" spans="1:20">
-      <c r="A298">
-        <v>1</v>
+    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A298" s="3">
+        <v>54</v>
       </c>
       <c r="B298">
         <v>1</v>
@@ -20557,9 +20560,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="299" spans="1:20">
-      <c r="A299">
-        <v>1</v>
+    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A299" s="3">
+        <v>54</v>
       </c>
       <c r="B299">
         <v>1</v>
@@ -20619,9 +20622,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="300" spans="1:20">
-      <c r="A300">
-        <v>1</v>
+    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A300" s="3">
+        <v>54</v>
       </c>
       <c r="B300">
         <v>1</v>
@@ -20681,9 +20684,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="301" spans="1:20">
-      <c r="A301">
-        <v>1</v>
+    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A301" s="3">
+        <v>54</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -20743,9 +20746,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="302" spans="1:20">
-      <c r="A302">
-        <v>1</v>
+    <row r="302" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A302" s="3">
+        <v>54</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -20805,9 +20808,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="303" spans="1:20">
-      <c r="A303">
-        <v>1</v>
+    <row r="303" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A303" s="3">
+        <v>54</v>
       </c>
       <c r="B303">
         <v>1</v>
@@ -20867,9 +20870,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="304" spans="1:20">
-      <c r="A304">
-        <v>1</v>
+    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A304" s="3">
+        <v>54</v>
       </c>
       <c r="B304">
         <v>1</v>
@@ -20929,9 +20932,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="305" spans="1:20">
-      <c r="A305">
-        <v>1</v>
+    <row r="305" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A305" s="3">
+        <v>54</v>
       </c>
       <c r="B305">
         <v>1</v>
@@ -20991,9 +20994,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="306" spans="1:20">
-      <c r="A306">
-        <v>1</v>
+    <row r="306" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A306" s="3">
+        <v>54</v>
       </c>
       <c r="B306">
         <v>1</v>
@@ -21053,9 +21056,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="307" spans="1:20">
-      <c r="A307">
-        <v>1</v>
+    <row r="307" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A307" s="3">
+        <v>54</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -21115,9 +21118,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="308" spans="1:20">
-      <c r="A308">
-        <v>1</v>
+    <row r="308" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A308" s="3">
+        <v>54</v>
       </c>
       <c r="B308">
         <v>1</v>
@@ -21177,9 +21180,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="309" spans="1:20">
-      <c r="A309">
-        <v>1</v>
+    <row r="309" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A309" s="3">
+        <v>54</v>
       </c>
       <c r="B309">
         <v>1</v>
@@ -21239,9 +21242,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="310" spans="1:20">
-      <c r="A310">
-        <v>1</v>
+    <row r="310" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A310" s="3">
+        <v>54</v>
       </c>
       <c r="B310">
         <v>1</v>
@@ -21301,9 +21304,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="311" spans="1:20">
-      <c r="A311">
-        <v>1</v>
+    <row r="311" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A311" s="3">
+        <v>54</v>
       </c>
       <c r="B311">
         <v>1</v>
@@ -21363,9 +21366,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="312" spans="1:20">
-      <c r="A312">
-        <v>1</v>
+    <row r="312" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A312" s="3">
+        <v>54</v>
       </c>
       <c r="B312">
         <v>1</v>
@@ -21425,9 +21428,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="313" spans="1:20">
-      <c r="A313">
-        <v>1</v>
+    <row r="313" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A313" s="3">
+        <v>54</v>
       </c>
       <c r="B313">
         <v>1</v>
@@ -21487,9 +21490,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="314" spans="1:20">
-      <c r="A314">
-        <v>1</v>
+    <row r="314" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A314" s="3">
+        <v>54</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -21549,9 +21552,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="315" spans="1:20">
-      <c r="A315">
-        <v>1</v>
+    <row r="315" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A315" s="3">
+        <v>54</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -21611,9 +21614,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="316" spans="1:20">
-      <c r="A316">
-        <v>1</v>
+    <row r="316" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A316" s="3">
+        <v>54</v>
       </c>
       <c r="B316">
         <v>1</v>
@@ -21673,9 +21676,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="317" spans="1:20">
-      <c r="A317">
-        <v>1</v>
+    <row r="317" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A317" s="3">
+        <v>54</v>
       </c>
       <c r="B317">
         <v>1</v>
@@ -21735,9 +21738,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="318" spans="1:20">
-      <c r="A318">
-        <v>1</v>
+    <row r="318" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A318" s="3">
+        <v>54</v>
       </c>
       <c r="B318">
         <v>1</v>
@@ -21797,9 +21800,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="319" spans="1:20">
-      <c r="A319">
-        <v>1</v>
+    <row r="319" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A319" s="3">
+        <v>54</v>
       </c>
       <c r="B319">
         <v>1</v>
@@ -21859,9 +21862,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="320" spans="1:20">
-      <c r="A320">
-        <v>1</v>
+    <row r="320" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A320" s="3">
+        <v>54</v>
       </c>
       <c r="B320">
         <v>1</v>
@@ -21921,9 +21924,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="321" spans="1:20">
-      <c r="A321">
-        <v>1</v>
+    <row r="321" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A321" s="3">
+        <v>54</v>
       </c>
       <c r="B321">
         <v>1</v>
@@ -21983,9 +21986,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="322" spans="1:20">
-      <c r="A322">
-        <v>1</v>
+    <row r="322" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A322" s="3">
+        <v>54</v>
       </c>
       <c r="B322">
         <v>1</v>
@@ -22045,9 +22048,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="323" spans="1:20">
-      <c r="A323">
-        <v>1</v>
+    <row r="323" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A323" s="3">
+        <v>54</v>
       </c>
       <c r="B323">
         <v>1</v>
@@ -22107,9 +22110,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="324" spans="1:20">
-      <c r="A324">
-        <v>1</v>
+    <row r="324" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A324" s="3">
+        <v>54</v>
       </c>
       <c r="B324">
         <v>1</v>
@@ -22169,9 +22172,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="325" spans="1:20">
-      <c r="A325">
-        <v>1</v>
+    <row r="325" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A325" s="3">
+        <v>54</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -22231,9 +22234,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="326" spans="1:20">
-      <c r="A326">
-        <v>1</v>
+    <row r="326" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A326" s="3">
+        <v>54</v>
       </c>
       <c r="B326">
         <v>1</v>
@@ -22293,9 +22296,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="327" spans="1:20">
-      <c r="A327">
-        <v>1</v>
+    <row r="327" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A327" s="3">
+        <v>54</v>
       </c>
       <c r="B327">
         <v>1</v>
@@ -22355,9 +22358,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="328" spans="1:20">
-      <c r="A328">
-        <v>1</v>
+    <row r="328" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A328" s="3">
+        <v>54</v>
       </c>
       <c r="B328">
         <v>1</v>
@@ -22417,9 +22420,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="329" spans="1:20">
-      <c r="A329">
-        <v>1</v>
+    <row r="329" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A329" s="3">
+        <v>54</v>
       </c>
       <c r="B329">
         <v>1</v>
@@ -22479,9 +22482,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="330" spans="1:20">
-      <c r="A330">
-        <v>1</v>
+    <row r="330" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A330" s="3">
+        <v>54</v>
       </c>
       <c r="B330">
         <v>1</v>
@@ -22541,9 +22544,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="331" spans="1:20">
-      <c r="A331">
-        <v>1</v>
+    <row r="331" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A331" s="3">
+        <v>54</v>
       </c>
       <c r="B331">
         <v>1</v>
@@ -22603,9 +22606,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="332" spans="1:20">
-      <c r="A332">
-        <v>1</v>
+    <row r="332" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A332" s="3">
+        <v>54</v>
       </c>
       <c r="B332">
         <v>1</v>
@@ -22665,9 +22668,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="333" spans="1:20">
-      <c r="A333">
-        <v>1</v>
+    <row r="333" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A333" s="3">
+        <v>54</v>
       </c>
       <c r="B333">
         <v>1</v>
@@ -22727,9 +22730,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="334" spans="1:20">
-      <c r="A334">
-        <v>1</v>
+    <row r="334" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A334" s="3">
+        <v>54</v>
       </c>
       <c r="B334">
         <v>1</v>
@@ -22789,9 +22792,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="335" spans="1:20">
-      <c r="A335">
-        <v>1</v>
+    <row r="335" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A335" s="3">
+        <v>54</v>
       </c>
       <c r="B335">
         <v>1</v>
@@ -22851,9 +22854,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="336" spans="1:20">
-      <c r="A336">
-        <v>1</v>
+    <row r="336" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A336" s="3">
+        <v>54</v>
       </c>
       <c r="B336">
         <v>1</v>
@@ -22913,9 +22916,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="337" spans="1:20">
-      <c r="A337">
-        <v>1</v>
+    <row r="337" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A337" s="3">
+        <v>54</v>
       </c>
       <c r="B337">
         <v>1</v>
@@ -22975,9 +22978,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="338" spans="1:20">
-      <c r="A338">
-        <v>1</v>
+    <row r="338" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A338" s="3">
+        <v>54</v>
       </c>
       <c r="B338">
         <v>1</v>
@@ -23037,9 +23040,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="339" spans="1:20">
-      <c r="A339">
-        <v>1</v>
+    <row r="339" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A339" s="3">
+        <v>54</v>
       </c>
       <c r="B339">
         <v>1</v>
@@ -23099,9 +23102,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="340" spans="1:20">
-      <c r="A340">
-        <v>1</v>
+    <row r="340" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A340" s="3">
+        <v>54</v>
       </c>
       <c r="B340">
         <v>1</v>
@@ -23161,9 +23164,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="341" spans="1:20">
-      <c r="A341">
-        <v>1</v>
+    <row r="341" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A341" s="3">
+        <v>54</v>
       </c>
       <c r="B341">
         <v>1</v>
@@ -23223,9 +23226,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="342" spans="1:20">
-      <c r="A342">
-        <v>1</v>
+    <row r="342" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A342" s="3">
+        <v>54</v>
       </c>
       <c r="B342">
         <v>1</v>
@@ -23285,9 +23288,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="343" spans="1:20">
-      <c r="A343">
-        <v>1</v>
+    <row r="343" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A343" s="3">
+        <v>54</v>
       </c>
       <c r="B343">
         <v>1</v>
@@ -23347,9 +23350,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="344" spans="1:20">
-      <c r="A344">
-        <v>1</v>
+    <row r="344" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A344" s="3">
+        <v>54</v>
       </c>
       <c r="B344">
         <v>1</v>
@@ -23409,9 +23412,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="345" spans="1:20">
-      <c r="A345">
-        <v>1</v>
+    <row r="345" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A345" s="3">
+        <v>54</v>
       </c>
       <c r="B345">
         <v>1</v>
@@ -23471,9 +23474,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="346" spans="1:20">
-      <c r="A346">
-        <v>1</v>
+    <row r="346" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A346" s="3">
+        <v>54</v>
       </c>
       <c r="B346">
         <v>1</v>
@@ -23533,9 +23536,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="347" spans="1:20">
-      <c r="A347">
-        <v>1</v>
+    <row r="347" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A347" s="3">
+        <v>54</v>
       </c>
       <c r="B347">
         <v>1</v>
@@ -23595,9 +23598,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="348" spans="1:20">
-      <c r="A348">
-        <v>1</v>
+    <row r="348" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A348" s="3">
+        <v>54</v>
       </c>
       <c r="B348">
         <v>1</v>
@@ -23657,9 +23660,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="349" spans="1:20">
-      <c r="A349">
-        <v>1</v>
+    <row r="349" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A349" s="3">
+        <v>54</v>
       </c>
       <c r="B349">
         <v>1</v>
@@ -23736,23 +23739,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <File xmlns="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B1636FD24704A1439BC275B3C3F1C9C6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96691d2a4c347ae1a5dfc0cee8216ec1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xmlns:ns3="81cf108f-c583-47b3-8493-b6de3c823d22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f18913b399a1948fbd1deaf24005938" ns2:_="" ns3:_="">
     <xsd:import namespace="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
@@ -23975,14 +23961,56 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <File xmlns="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{743448BC-A887-480B-8CF0-145C72CB7A73}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6D26AD7-AD50-4921-A127-DBF26EF08F7C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
+    <ds:schemaRef ds:uri="81cf108f-c583-47b3-8493-b6de3c823d22"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6DBCFE7-40B3-4789-A08C-0CBC0577E4B9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6DBCFE7-40B3-4789-A08C-0CBC0577E4B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6D26AD7-AD50-4921-A127-DBF26EF08F7C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{743448BC-A887-480B-8CF0-145C72CB7A73}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>